--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_3.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_0</t>
+          <t>model_5_3_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5646653140560489</v>
+        <v>0.5550301287191901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8567352607191711</v>
+        <v>0.006776442350362566</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8608238381498103</v>
+        <v>-2.671469480003284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5531723286136256</v>
+        <v>-1.368327815690432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4817872047424316</v>
+        <v>0.4924505054950714</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1504155993461609</v>
+        <v>0.4854681193828583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5554528832435608</v>
+        <v>2.482096910476685</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3410213589668274</v>
+        <v>1.425058007240295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_1</t>
+          <t>model_5_3_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5798336260543659</v>
+        <v>0.5579973425867283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8686353954732735</v>
+        <v>-0.8357295935230498</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.880203024057818</v>
+        <v>-1.380530130829171</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5582719778120464</v>
+        <v>-1.048094870723453</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4650003910064697</v>
+        <v>0.4891667068004608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1379214972257614</v>
+        <v>0.8972684144973755</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5612375736236572</v>
+        <v>1.609357237815857</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3371292650699615</v>
+        <v>1.232369065284729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_2</t>
+          <t>model_5_3_23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5915558871040223</v>
+        <v>0.5580358416448823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8746231003494809</v>
+        <v>0.01213577285578915</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9483519438660371</v>
+        <v>-2.612549710523224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500898000107008</v>
+        <v>-1.334870205831018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.452027291059494</v>
+        <v>0.4891240894794464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1316349059343338</v>
+        <v>0.4828485250473022</v>
       </c>
       <c r="H4" t="n">
-        <v>0.581579864025116</v>
+        <v>2.442264080047607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3433739542961121</v>
+        <v>1.404926180839539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_3</t>
+          <t>model_5_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5999175378856649</v>
+        <v>0.5621204493605951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8726623505970409</v>
+        <v>-0.4699587757138119</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.05043681291086</v>
+        <v>-2.090886521625336</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5298732827140857</v>
+        <v>-1.266378158539548</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4427734017372131</v>
+        <v>0.4846036434173584</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1336935311555862</v>
+        <v>0.7184867858886719</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6120520830154419</v>
+        <v>2.089593648910522</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3588033020496368</v>
+        <v>1.363713383674622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_4</t>
+          <t>model_5_3_22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.606012032191968</v>
+        <v>0.5624276081260009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8580074031056834</v>
+        <v>-0.01351695435847211</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.15392153084226</v>
+        <v>-2.520628980037091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5001529162821303</v>
+        <v>-1.297301758149455</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4360285401344299</v>
+        <v>0.484263688325882</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1490799635648727</v>
+        <v>0.4953870177268982</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6429421305656433</v>
+        <v>2.380120992660522</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3814860582351685</v>
+        <v>1.382320642471313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_5</t>
+          <t>model_5_3_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6097504596368821</v>
+        <v>0.5648157283188475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8349397382166382</v>
+        <v>-0.7718050275667088</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.254204529401394</v>
+        <v>-1.631313261733653</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4648961908869714</v>
+        <v>-1.153199446267144</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4318912327289581</v>
+        <v>0.4816207885742188</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1732990145683289</v>
+        <v>0.8660233020782471</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6728764176368713</v>
+        <v>1.778899312019348</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4083941876888275</v>
+        <v>1.295612096786499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_6</t>
+          <t>model_5_3_13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6121778902590669</v>
+        <v>0.5684172925324882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8056694830665752</v>
+        <v>-0.7471151924975032</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.363290605813893</v>
+        <v>-1.382223713733608</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4235010564065883</v>
+        <v>-1.010881796376387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4292047917842865</v>
+        <v>0.4776349067687988</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2040302455425262</v>
+        <v>0.8539553880691528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7054384350776672</v>
+        <v>1.610502362251282</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4399872124195099</v>
+        <v>1.209977388381958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_7</t>
+          <t>model_5_3_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6136709998815606</v>
+        <v>0.5711367082256725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7703148850429723</v>
+        <v>-0.7346159519900224</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.474972901077003</v>
+        <v>-1.403690777567814</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3771973572985089</v>
+        <v>-1.01685698032231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4275523722171783</v>
+        <v>0.474625289440155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2411495298147202</v>
+        <v>0.8478460311889648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.738775372505188</v>
+        <v>1.625015139579773</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4753264188766479</v>
+        <v>1.21357274055481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_8</t>
+          <t>model_5_3_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.613810820926987</v>
+        <v>0.5716242395529803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7328899519752035</v>
+        <v>-0.71219527415607</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.580870571168553</v>
+        <v>-1.569871242808115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.330450452665264</v>
+        <v>-1.095078087640012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4273976385593414</v>
+        <v>0.4740857481956482</v>
       </c>
       <c r="G10" t="n">
-        <v>0.280442476272583</v>
+        <v>0.8368872404098511</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7703856825828552</v>
+        <v>1.737361431121826</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5110039114952087</v>
+        <v>1.260639548301697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_9</t>
+          <t>model_5_3_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6142948451822787</v>
+        <v>0.5724229241434513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6960073804498659</v>
+        <v>-0.7138301189459089</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.674717782948754</v>
+        <v>-1.446872000362969</v>
       </c>
       <c r="E11" t="n">
-        <v>0.286316285342195</v>
+        <v>-1.03074892579841</v>
       </c>
       <c r="F11" t="n">
-        <v>0.426861971616745</v>
+        <v>0.4732018411159515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.319165974855423</v>
+        <v>0.83768630027771</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7983989715576172</v>
+        <v>1.654207706451416</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5446873903274536</v>
+        <v>1.2219318151474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_11</t>
+          <t>model_5_3_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6145676585003046</v>
+        <v>0.575468971043079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6278705553954618</v>
+        <v>-0.6718694855355634</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.873047145033027</v>
+        <v>-1.525335147593555</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2001897607629426</v>
+        <v>-1.054189394539035</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4265600144863129</v>
+        <v>0.4698307514190674</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3907037675380707</v>
+        <v>0.8171766996383667</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8575999736785889</v>
+        <v>1.707252740859985</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6104196310043335</v>
+        <v>1.23603630065918</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_10</t>
+          <t>model_5_3_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6145698242525597</v>
+        <v>0.5758054137512654</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6615389935899265</v>
+        <v>-0.6570649503200447</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.769998580439097</v>
+        <v>-1.494091828594903</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2436767812431697</v>
+        <v>-1.031303357081398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4265576004981995</v>
+        <v>0.4694584310054779</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3553548157215118</v>
+        <v>0.8099405765533447</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8268400430679321</v>
+        <v>1.68613076210022</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5772300362586975</v>
+        <v>1.222265481948853</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_12</t>
+          <t>model_5_3_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6153689146161689</v>
+        <v>0.5766610666220124</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5995260669476224</v>
+        <v>-0.664623388881517</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.954416175790195</v>
+        <v>-1.26688681594009</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1645704424500176</v>
+        <v>-0.9144251740897891</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4256732761859894</v>
+        <v>0.4685114324092865</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4204630255699158</v>
+        <v>0.8136350512504578</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8818884491920471</v>
+        <v>1.532528638839722</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6376044750213623</v>
+        <v>1.151938080787659</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_13</t>
+          <t>model_5_3_20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6165080070131599</v>
+        <v>0.5833880741212497</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5736394995034355</v>
+        <v>-0.3054468308517095</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.034751237038351</v>
+        <v>-1.960538699105742</v>
       </c>
       <c r="E15" t="n">
-        <v>0.130931530761922</v>
+        <v>-1.126712536339167</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4244126677513123</v>
+        <v>0.4610666632652283</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4476417005062103</v>
+        <v>0.6380766034126282</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9058682918548584</v>
+        <v>2.001471996307373</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6632778644561768</v>
+        <v>1.279674530029297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_14</t>
+          <t>model_5_3_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6181708439433683</v>
+        <v>0.5889869893647994</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5538476952447383</v>
+        <v>-0.5845158621796052</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.12095897553504</v>
+        <v>-1.137830138801714</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1006508575645531</v>
+        <v>-0.8117393631244987</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4225723743438721</v>
+        <v>0.4548702836036682</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4684213399887085</v>
+        <v>0.7744800448417664</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9316012263298035</v>
+        <v>1.445280075073242</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6863882541656494</v>
+        <v>1.090150475502014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_15</t>
+          <t>model_5_3_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6205639604290512</v>
+        <v>0.5947903309082923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5395638520002786</v>
+        <v>-0.5894879643179232</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.202367538892208</v>
+        <v>-1.017278267084292</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07526419779239224</v>
+        <v>-0.7501393564201948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4199238717556</v>
+        <v>0.4484476745128632</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483418196439743</v>
+        <v>0.7769103050231934</v>
       </c>
       <c r="H17" t="n">
-        <v>0.955901563167572</v>
+        <v>1.363780975341797</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7057634592056274</v>
+        <v>1.053084850311279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_16</t>
+          <t>model_5_3_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6225926824648833</v>
+        <v>0.6026112360226544</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5246521887492568</v>
+        <v>-0.5821645865941678</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.282120300644792</v>
+        <v>-0.8911003367281183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04972554390846551</v>
+        <v>-0.6802765851878372</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4176786839962006</v>
+        <v>0.4397923052310944</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4990741312503815</v>
+        <v>0.7733308076858521</v>
       </c>
       <c r="H18" t="n">
-        <v>0.979707658290863</v>
+        <v>1.278478384017944</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7252546548843384</v>
+        <v>1.01104736328125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_17</t>
+          <t>model_5_3_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6254413762179099</v>
+        <v>0.613144983991541</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5165217828483892</v>
+        <v>-0.5965954532019919</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.351964723163729</v>
+        <v>-0.7051687723539604</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03094954836849784</v>
+        <v>-0.588176495309725</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4145260453224182</v>
+        <v>0.4281345009803772</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5076103806495667</v>
+        <v>0.7803843021392822</v>
       </c>
       <c r="H19" t="n">
-        <v>1.000555992126465</v>
+        <v>1.152779340744019</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7395846247673035</v>
+        <v>0.9556294679641724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_18</t>
+          <t>model_5_3_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6284447671917166</v>
+        <v>0.6212918548933679</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5097895931606014</v>
+        <v>-0.5558891093535625</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.421717651934203</v>
+        <v>-0.5962758907312189</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0132079672697264</v>
+        <v>-0.5130959610083703</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4112021625041962</v>
+        <v>0.419118344783783</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5146785974502563</v>
+        <v>0.7604878544807434</v>
       </c>
       <c r="H20" t="n">
-        <v>1.021377205848694</v>
+        <v>1.079162240028381</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7531251311302185</v>
+        <v>0.9104523062705994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_19</t>
+          <t>model_5_3_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6323642523783416</v>
+        <v>0.6297631725067594</v>
       </c>
       <c r="C21" t="n">
-        <v>0.506562447616133</v>
+        <v>-0.5683919507471931</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.482783160685409</v>
+        <v>-0.4302506504797676</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.000381521033204546</v>
+        <v>-0.4306914069280428</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4068644344806671</v>
+        <v>0.409743070602417</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5180667638778687</v>
+        <v>0.7665989398956299</v>
       </c>
       <c r="H21" t="n">
-        <v>1.039605140686035</v>
+        <v>0.9669208526611328</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7634967565536499</v>
+        <v>0.8608682751655579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_20</t>
+          <t>model_5_3_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6361508829701179</v>
+        <v>0.6351483482436855</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5039125726964806</v>
+        <v>-0.5394192377716829</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.537782367095223</v>
+        <v>-0.3326028794532103</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01243407865637036</v>
+        <v>-0.3666026805125491</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4026737809181213</v>
+        <v>0.4037832617759705</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5208489894866943</v>
+        <v>0.7524377107620239</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0560222864151</v>
+        <v>0.9009061455726624</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7726953029632568</v>
+        <v>0.8223051428794861</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_21</t>
+          <t>model_5_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6399502366568286</v>
+        <v>0.6395712387529894</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5008993489991107</v>
+        <v>-0.5794925361723628</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.591773955809112</v>
+        <v>-0.1135658762688496</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.02456564084417878</v>
+        <v>-0.2680259874122277</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3984689712524414</v>
+        <v>0.3988884389400482</v>
       </c>
       <c r="G23" t="n">
-        <v>0.524012565612793</v>
+        <v>0.7720246911048889</v>
       </c>
       <c r="H23" t="n">
-        <v>1.072138667106628</v>
+        <v>0.7528261542320251</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7819542288780212</v>
+        <v>0.7629901170730591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_22</t>
+          <t>model_5_3_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6438984380318244</v>
+        <v>0.64077402888374</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5020069331361245</v>
+        <v>-0.5494386517248586</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.638564798471551</v>
+        <v>-0.2013364513512852</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03237123551151155</v>
+        <v>-0.3015076396180443</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3940995037555695</v>
+        <v>0.397557258605957</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5228497385978699</v>
+        <v>0.7573350667953491</v>
       </c>
       <c r="H24" t="n">
-        <v>1.086105704307556</v>
+        <v>0.8121634721755981</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7879114747047424</v>
+        <v>0.7831364870071411</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_23</t>
+          <t>model_5_3_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6479690826813929</v>
+        <v>0.6932146697000265</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5045467268151502</v>
+        <v>0.09680249171218636</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.687695086565821</v>
+        <v>0.4044617112107701</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.03956354989619681</v>
+        <v>0.2967063077025471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3895944952964783</v>
+        <v>0.3395209610462189</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5201831459999084</v>
+        <v>0.4414651095867157</v>
       </c>
       <c r="H25" t="n">
-        <v>1.100770950317383</v>
+        <v>0.402613639831543</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7934006452560425</v>
+        <v>0.4231822490692139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_3_24</t>
+          <t>model_5_3_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6510020614856518</v>
+        <v>0.7320359580327026</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5025396497314174</v>
+        <v>0.6547099464826277</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.739576565567391</v>
+        <v>0.5090547838950488</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.05057460835530558</v>
+        <v>0.5919342933309111</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3862378895282745</v>
+        <v>0.2965572476387024</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5222904682159424</v>
+        <v>0.168770968914032</v>
       </c>
       <c r="H26" t="n">
-        <v>1.116257548332214</v>
+        <v>0.3319035172462463</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8018043637275696</v>
+        <v>0.2455392181873322</v>
       </c>
     </row>
   </sheetData>
